--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.179451858901</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H2">
-        <v>11.179451858901</v>
+        <v>34.311362</v>
       </c>
       <c r="I2">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J2">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>6.79414117517709</v>
+        <v>0.03156133333333334</v>
       </c>
       <c r="N2">
-        <v>6.79414117517709</v>
+        <v>0.094684</v>
       </c>
       <c r="O2">
-        <v>0.9289907407717081</v>
+        <v>0.004167759769700065</v>
       </c>
       <c r="P2">
-        <v>0.9289907407717081</v>
+        <v>0.004167759769700064</v>
       </c>
       <c r="Q2">
-        <v>75.95477419046935</v>
+        <v>0.3609707777342223</v>
       </c>
       <c r="R2">
-        <v>75.95477419046935</v>
+        <v>3.248736999608</v>
       </c>
       <c r="S2">
-        <v>0.546127061051774</v>
+        <v>0.002415771132117962</v>
       </c>
       <c r="T2">
-        <v>0.546127061051774</v>
+        <v>0.002415771132117961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.179451858901</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H3">
-        <v>11.179451858901</v>
+        <v>34.311362</v>
       </c>
       <c r="I3">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J3">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.51932372495015</v>
+        <v>6.959457666666666</v>
       </c>
       <c r="N3">
-        <v>0.51932372495015</v>
+        <v>20.878373</v>
       </c>
       <c r="O3">
-        <v>0.07100925922829202</v>
+        <v>0.919015282900934</v>
       </c>
       <c r="P3">
-        <v>0.07100925922829202</v>
+        <v>0.9190152829009339</v>
       </c>
       <c r="Q3">
-        <v>5.805754582265346</v>
+        <v>79.59615710822511</v>
       </c>
       <c r="R3">
-        <v>5.805754582265346</v>
+        <v>716.3654139740261</v>
       </c>
       <c r="S3">
-        <v>0.04174431062423319</v>
+        <v>0.5326915928667048</v>
       </c>
       <c r="T3">
-        <v>0.04174431062423319</v>
+        <v>0.5326915928667046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.7376091292139</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H4">
-        <v>5.7376091292139</v>
+        <v>34.311362</v>
       </c>
       <c r="I4">
-        <v>0.3017121225175469</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J4">
-        <v>0.3017121225175469</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>6.79414117517709</v>
+        <v>0.004286</v>
       </c>
       <c r="N4">
-        <v>6.79414117517709</v>
+        <v>0.012858</v>
       </c>
       <c r="O4">
-        <v>0.9289907407717081</v>
+        <v>0.0005659779383930065</v>
       </c>
       <c r="P4">
-        <v>0.9289907407717081</v>
+        <v>0.0005659779383930064</v>
       </c>
       <c r="Q4">
-        <v>38.98212643186413</v>
+        <v>0.04901949917733333</v>
       </c>
       <c r="R4">
-        <v>38.98212643186413</v>
+        <v>0.441175492596</v>
       </c>
       <c r="S4">
-        <v>0.2802877681973802</v>
+        <v>0.0003280594949175441</v>
       </c>
       <c r="T4">
-        <v>0.2802877681973802</v>
+        <v>0.000328059494917544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.7376091292139</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H5">
-        <v>5.7376091292139</v>
+        <v>34.311362</v>
       </c>
       <c r="I5">
-        <v>0.3017121225175469</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J5">
-        <v>0.3017121225175469</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.51932372495015</v>
+        <v>0.5774283333333333</v>
       </c>
       <c r="N5">
-        <v>0.51932372495015</v>
+        <v>1.732285</v>
       </c>
       <c r="O5">
-        <v>0.07100925922829202</v>
+        <v>0.07625097939097288</v>
       </c>
       <c r="P5">
-        <v>0.07100925922829202</v>
+        <v>0.07625097939097286</v>
       </c>
       <c r="Q5">
-        <v>2.979676545291349</v>
+        <v>6.604117524685556</v>
       </c>
       <c r="R5">
-        <v>2.979676545291349</v>
+        <v>59.43705772217</v>
       </c>
       <c r="S5">
-        <v>0.02142435432016668</v>
+        <v>0.04419758455072623</v>
       </c>
       <c r="T5">
-        <v>0.02142435432016668</v>
+        <v>0.04419758455072622</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.0997722810893</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H6">
-        <v>2.0997722810893</v>
+        <v>17.262925</v>
       </c>
       <c r="I6">
-        <v>0.1104165058064459</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="J6">
-        <v>0.1104165058064459</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>6.79414117517709</v>
+        <v>0.03156133333333334</v>
       </c>
       <c r="N6">
-        <v>6.79414117517709</v>
+        <v>0.094684</v>
       </c>
       <c r="O6">
-        <v>0.9289907407717081</v>
+        <v>0.004167759769700065</v>
       </c>
       <c r="P6">
-        <v>0.9289907407717081</v>
+        <v>0.004167759769700064</v>
       </c>
       <c r="Q6">
-        <v>14.26614931344434</v>
+        <v>0.1816136434111112</v>
       </c>
       <c r="R6">
-        <v>14.26614931344434</v>
+        <v>1.6345227907</v>
       </c>
       <c r="S6">
-        <v>0.1025759115225538</v>
+        <v>0.001215436328960578</v>
       </c>
       <c r="T6">
-        <v>0.1025759115225538</v>
+        <v>0.001215436328960577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.754308333333334</v>
+      </c>
+      <c r="H7">
+        <v>17.262925</v>
+      </c>
+      <c r="I7">
+        <v>0.2916282118266253</v>
+      </c>
+      <c r="J7">
+        <v>0.2916282118266253</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.959457666666666</v>
+      </c>
+      <c r="N7">
+        <v>20.878373</v>
+      </c>
+      <c r="O7">
+        <v>0.919015282900934</v>
+      </c>
+      <c r="P7">
+        <v>0.9190152829009339</v>
+      </c>
+      <c r="Q7">
+        <v>40.04686524678056</v>
+      </c>
+      <c r="R7">
+        <v>360.4217872210251</v>
+      </c>
+      <c r="S7">
+        <v>0.2680107835937396</v>
+      </c>
+      <c r="T7">
+        <v>0.2680107835937395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.754308333333334</v>
+      </c>
+      <c r="H8">
+        <v>17.262925</v>
+      </c>
+      <c r="I8">
+        <v>0.2916282118266253</v>
+      </c>
+      <c r="J8">
+        <v>0.2916282118266253</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.004286</v>
+      </c>
+      <c r="N8">
+        <v>0.012858</v>
+      </c>
+      <c r="O8">
+        <v>0.0005659779383930065</v>
+      </c>
+      <c r="P8">
+        <v>0.0005659779383930064</v>
+      </c>
+      <c r="Q8">
+        <v>0.02466296551666667</v>
+      </c>
+      <c r="R8">
+        <v>0.22196668965</v>
+      </c>
+      <c r="S8">
+        <v>0.0001650551341068724</v>
+      </c>
+      <c r="T8">
+        <v>0.0001650551341068723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.754308333333334</v>
+      </c>
+      <c r="H9">
+        <v>17.262925</v>
+      </c>
+      <c r="I9">
+        <v>0.2916282118266253</v>
+      </c>
+      <c r="J9">
+        <v>0.2916282118266253</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5774283333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.732285</v>
+      </c>
+      <c r="O9">
+        <v>0.07625097939097288</v>
+      </c>
+      <c r="P9">
+        <v>0.07625097939097286</v>
+      </c>
+      <c r="Q9">
+        <v>3.322700670402778</v>
+      </c>
+      <c r="R9">
+        <v>29.904306033625</v>
+      </c>
+      <c r="S9">
+        <v>0.02223693676981828</v>
+      </c>
+      <c r="T9">
+        <v>0.02223693676981827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J10">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.03156133333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.094684</v>
+      </c>
+      <c r="O10">
+        <v>0.004167759769700065</v>
+      </c>
+      <c r="P10">
+        <v>0.004167759769700064</v>
+      </c>
+      <c r="Q10">
+        <v>0.008427212654222223</v>
+      </c>
+      <c r="R10">
+        <v>0.07584491388800001</v>
+      </c>
+      <c r="S10">
+        <v>5.639851841214332E-05</v>
+      </c>
+      <c r="T10">
+        <v>5.639851841214332E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.0997722810893</v>
-      </c>
-      <c r="H7">
-        <v>2.0997722810893</v>
-      </c>
-      <c r="I7">
-        <v>0.1104165058064459</v>
-      </c>
-      <c r="J7">
-        <v>0.1104165058064459</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.51932372495015</v>
-      </c>
-      <c r="N7">
-        <v>0.51932372495015</v>
-      </c>
-      <c r="O7">
-        <v>0.07100925922829202</v>
-      </c>
-      <c r="P7">
-        <v>0.07100925922829202</v>
-      </c>
-      <c r="Q7">
-        <v>1.090461562562369</v>
-      </c>
-      <c r="R7">
-        <v>1.090461562562369</v>
-      </c>
-      <c r="S7">
-        <v>0.00784059428389213</v>
-      </c>
-      <c r="T7">
-        <v>0.00784059428389213</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J11">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.959457666666666</v>
+      </c>
+      <c r="N11">
+        <v>20.878373</v>
+      </c>
+      <c r="O11">
+        <v>0.919015282900934</v>
+      </c>
+      <c r="P11">
+        <v>0.9190152829009339</v>
+      </c>
+      <c r="Q11">
+        <v>1.858249431215111</v>
+      </c>
+      <c r="R11">
+        <v>16.724244880936</v>
+      </c>
+      <c r="S11">
+        <v>0.01243620151299159</v>
+      </c>
+      <c r="T11">
+        <v>0.01243620151299159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J12">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.004286</v>
+      </c>
+      <c r="N12">
+        <v>0.012858</v>
+      </c>
+      <c r="O12">
+        <v>0.0005659779383930065</v>
+      </c>
+      <c r="P12">
+        <v>0.0005659779383930064</v>
+      </c>
+      <c r="Q12">
+        <v>0.001144407717333333</v>
+      </c>
+      <c r="R12">
+        <v>0.010299669456</v>
+      </c>
+      <c r="S12">
+        <v>7.658866859694761E-06</v>
+      </c>
+      <c r="T12">
+        <v>7.658866859694761E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J13">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5774283333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.732285</v>
+      </c>
+      <c r="O13">
+        <v>0.07625097939097288</v>
+      </c>
+      <c r="P13">
+        <v>0.07625097939097286</v>
+      </c>
+      <c r="Q13">
+        <v>0.1541795242355556</v>
+      </c>
+      <c r="R13">
+        <v>1.38761571812</v>
+      </c>
+      <c r="S13">
+        <v>0.001031835447040468</v>
+      </c>
+      <c r="T13">
+        <v>0.001031835447040468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.273219</v>
+      </c>
+      <c r="H14">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J14">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03156133333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.094684</v>
+      </c>
+      <c r="O14">
+        <v>0.004167759769700065</v>
+      </c>
+      <c r="P14">
+        <v>0.004167759769700064</v>
+      </c>
+      <c r="Q14">
+        <v>0.07174582259866666</v>
+      </c>
+      <c r="R14">
+        <v>0.645712403388</v>
+      </c>
+      <c r="S14">
+        <v>0.0004801537902093824</v>
+      </c>
+      <c r="T14">
+        <v>0.0004801537902093824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.273219</v>
+      </c>
+      <c r="H15">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J15">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.959457666666666</v>
+      </c>
+      <c r="N15">
+        <v>20.878373</v>
+      </c>
+      <c r="O15">
+        <v>0.919015282900934</v>
+      </c>
+      <c r="P15">
+        <v>0.9190152829009339</v>
+      </c>
+      <c r="Q15">
+        <v>15.82037139756233</v>
+      </c>
+      <c r="R15">
+        <v>142.383342578061</v>
+      </c>
+      <c r="S15">
+        <v>0.1058767049274981</v>
+      </c>
+      <c r="T15">
+        <v>0.1058767049274981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.273219</v>
+      </c>
+      <c r="H16">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J16">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.004286</v>
+      </c>
+      <c r="N16">
+        <v>0.012858</v>
+      </c>
+      <c r="O16">
+        <v>0.0005659779383930065</v>
+      </c>
+      <c r="P16">
+        <v>0.0005659779383930064</v>
+      </c>
+      <c r="Q16">
+        <v>0.009743016633999999</v>
+      </c>
+      <c r="R16">
+        <v>0.08768714970599999</v>
+      </c>
+      <c r="S16">
+        <v>6.520444250889526E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.520444250889526E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.273219</v>
+      </c>
+      <c r="H17">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J17">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5774283333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.732285</v>
+      </c>
+      <c r="O17">
+        <v>0.07625097939097288</v>
+      </c>
+      <c r="P17">
+        <v>0.07625097939097286</v>
+      </c>
+      <c r="Q17">
+        <v>1.312621058471666</v>
+      </c>
+      <c r="R17">
+        <v>11.813589526245</v>
+      </c>
+      <c r="S17">
+        <v>0.008784622623387899</v>
+      </c>
+      <c r="T17">
+        <v>0.008784622623387899</v>
       </c>
     </row>
   </sheetData>
